--- a/Employee_Reports35/Ifras Mohammed Q0598.xlsx
+++ b/Employee_Reports35/Ifras Mohammed Q0598.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>-19665</v>
+        <v>-19666</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -711,11 +711,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">

--- a/Employee_Reports35/Ifras Mohammed Q0598.xlsx
+++ b/Employee_Reports35/Ifras Mohammed Q0598.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -82,9 +76,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,8 +460,8 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="73" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -572,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -636,57 +627,53 @@
       <c r="K4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Non-powered roller Decks (Cargo Trainings)</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>LSME-CRG-M-016</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>01-Jan-1970</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>01-Jan-1972</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>-19666</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
-        <is>
-          <t>this is a wronlgy formatted date and it will be corrected in the future</t>
-        </is>
-      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>23-Apr-2025</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>23-Apr-2027</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>534</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -711,11 +698,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
